--- a/PeerEvaluationTemplate_6Person.xlsx
+++ b/PeerEvaluationTemplate_6Person.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walterm\Dropbox\Classes\MAE151W22\GradesRosters\PeerEval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walterm\Documents\GitProjects\PeerEvalTemplateCreator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70978CC1-24A3-43FB-99A2-B36D3392E751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04D737A-F406-48B7-82B2-7F21206B31C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="23295" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="PeerRating" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -26,88 +25,88 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Rating Descriptions (provide whole number ratings (5, 4, 3, 2, or 1) in columns for each each member including yourself)</t>
-  </si>
-  <si>
     <t>Having Relevant Knowledge, Skills, and Abilities (KSAs)</t>
+  </si>
+  <si>
+    <t>Contributing to the Team’s Work</t>
+  </si>
+  <si>
+    <t>5: Does higher quality work than expected, makes important contributions that improve team's work, helps teams who are having difficulty
+3: Complete fair share of work with acceptable quality, does promised work on time, helps others when it is easy or important
+1: Does not do a fair share of the team's work. Delivers sloppy or incomplete work.</t>
+  </si>
+  <si>
+    <t>Interacting with Teammates</t>
+  </si>
+  <si>
+    <t>Keeping the Team on Track</t>
+  </si>
+  <si>
+    <t>Expecting Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments (REQUIRED): For each person (including yourself), in the corresponding shaded box below, comment on how the teammate can improve on his/her worst rating </t>
+  </si>
+  <si>
+    <t>&lt;-- A1 Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;-- B2 Person </t>
+  </si>
+  <si>
+    <t>&lt;-- C3 Person</t>
+  </si>
+  <si>
+    <t>&lt;-- D4 Person</t>
+  </si>
+  <si>
+    <t>&lt;-- E5 Person</t>
+  </si>
+  <si>
+    <t>&lt;-- F6 Person</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F6</t>
   </si>
   <si>
     <t>5: Demonstrates KSAs to do excellent work, acquires new KSA to help team, can perform any role on team if necessary
 4: Between 5 above and 3 below
 3: Demonstrates sufficient KSA to contribute to team, acquires KSAs to meet requirements, able to perform other tasks
 2: Between 3 above and 1 below
-1: Missing basic qualification, unable to develop KSAs to contribute to team, unable to peform any one elses duties</t>
-  </si>
-  <si>
-    <t>Contributing to the Team’s Work</t>
-  </si>
-  <si>
-    <t>5: Does higher quality work than expected, makes important contributions that improve team's work, helps teams who are having difficulty
-3: Complete fair share of work with acceptable quality, does promised work on time, helps others when it is easy or important
-1: Does not do a fair share of the team's work. Delivers sloppy or incomplete work.</t>
-  </si>
-  <si>
-    <t>Interacting with Teammates</t>
+1: Missing basic qualification, unable to develop KSAs to contribute to team, unable to perform any one else's duties</t>
   </si>
   <si>
     <t>5: Is interested in teammates ideas and contributions, makes sure everyone is informed, is encouraging, enthusiastic and asks for feedback/suggestions
-3: Listens and respects teammate contributsions, communicates clearly, shares info, participates fully, reacts and responds to feedback/suggestions
+3: Listens and respects teammate contributions, communicates clearly, shares info, participates fully, reacts and responds to feedback/suggestions
 1: Interrupts, ignores, bosses, or makes fun, takes action without input, does not share, complains, makes excuses, does not interact, is defensive</t>
   </si>
   <si>
-    <t>Keeping the Team on Track</t>
-  </si>
-  <si>
     <t>5: Monitors teams' progress, makes sure teammates are progressing, gives specific, timely, and constructive feedback
-3: Knows what everyone on the team should be doing and notices problems, alerts teammates and suggests solutions with sucess is threatened
+3: Knows what everyone on the team should be doing and notices problems, alerts teammates and suggests solutions with success is threatened
 1: Unaware if team is meeting goals, does not pay attention to teammates progress, avoids discussing team problems even when obvious</t>
   </si>
   <si>
-    <t>Expecting Quality</t>
-  </si>
-  <si>
     <t>5: Motivates team to do excellent work, cares about excellent work even without reward, believes in team's ability to do excellent work
-3: Encouarges good work to meet requirements, believes team can meet its responsiblities
+3: Encourages good work to meet requirements, believes team can meet its responsibilities
 1: Satisfied even if not all requirements are met,  avoids work, doubts team can meet requirements</t>
   </si>
   <si>
-    <t xml:space="preserve">Comments (REQUIRED): For each person (including yourself), in the corresponding shaded box below, comment on how the teammate can improve on his/her worst rating </t>
-  </si>
-  <si>
-    <t>&lt;-- A1 Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;-- B2 Person </t>
-  </si>
-  <si>
-    <t>&lt;-- C3 Person</t>
-  </si>
-  <si>
-    <t>&lt;-- D4 Person</t>
-  </si>
-  <si>
-    <t>&lt;-- E5 Person</t>
-  </si>
-  <si>
-    <t>&lt;-- F6 Person</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F6</t>
+    <t>Rating Descriptions (provide whole number ratings (5, 4, 3, 2, or 1) in columns for each member including yourself)</t>
   </si>
 </sst>
 </file>
@@ -370,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -382,12 +381,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -423,10 +421,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -447,9 +445,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -487,7 +485,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -593,7 +591,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -735,7 +733,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,7 +747,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -760,21 +758,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="7" t="s">
-        <v>21</v>
+      <c r="A2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -784,231 +782,209 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="15" t="s">
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="23" t="s">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="24" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="23" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="24" t="s">
+    </row>
+    <row r="17" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+    </row>
+    <row r="18" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="5" t="s">
+    </row>
+    <row r="19" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
